--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -27,6 +27,18 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/5/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weekly Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -404,6 +416,28 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/7/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -395,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -437,6 +441,17 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>1/7/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/6/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meeting Preparation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -399,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -446,12 +454,23 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -50,7 +50,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Meeting Preparation</t>
+    <t>1/8/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Knex Party</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM - Meeting Preparation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM - Meeting Summary, Calendar Updates</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -407,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -460,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -472,6 +484,28 @@
       </c>
       <c r="C5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>PM - Meeting Summary, Calendar Updates</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/9/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meccano Party</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Purchase Meccano</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -419,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -506,6 +518,28 @@
       </c>
       <c r="C7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -75,6 +75,30 @@
   </si>
   <si>
     <t>Purchase Meccano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/11/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microcontroller research</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/3/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/2/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Review reference material (Plaskos Thesis)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Review reference material (Nikolai, 2008 Group)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -82,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +124,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -130,11 +162,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,14 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
@@ -454,42 +490,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+    <row r="2" spans="1:3" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -500,46 +536,90 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>Review reference material (Nikolai, 2008 Group)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/12/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -466,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -620,6 +624,28 @@
       </c>
       <c r="C13" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>1/12/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/14/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -470,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -646,6 +650,17 @@
       </c>
       <c r="C15" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>1/14/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/17/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Control System Research</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/19/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -474,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -661,6 +673,39 @@
       </c>
       <c r="C16" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -119,6 +119,42 @@
   </si>
   <si>
     <t>1/19/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/21/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/22/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAR Research</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/24/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFP Update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM - Meeting Preparation and Updates</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAR - electrical and software (matlab)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/25/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAR - electrical and software</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -486,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -706,6 +742,72 @@
       </c>
       <c r="C19" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>1.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>TAR - electrical and software</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/26/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -522,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -808,6 +812,28 @@
       </c>
       <c r="C25" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -159,6 +159,14 @@
   </si>
   <si>
     <t>1/26/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/26/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAR - microcontroller minimum speed calculation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -526,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -834,6 +842,17 @@
       </c>
       <c r="C27" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -167,6 +167,22 @@
   </si>
   <si>
     <t>TAR - microcontroller minimum speed calculation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/27/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAR - microcontroller speed simulation and writeup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/28/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAR compilation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -534,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -853,6 +869,28 @@
       </c>
       <c r="C28" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>TAR compilation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/28/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -550,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -891,6 +895,17 @@
       </c>
       <c r="C30" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -187,6 +187,30 @@
   </si>
   <si>
     <t>1/28/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/1/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting - Chris meeting prep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/1/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chris Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/2/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -554,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -906,6 +930,39 @@
       </c>
       <c r="C31" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>1.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -211,6 +211,22 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/8/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/11/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Design and Decision Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -578,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -963,6 +979,39 @@
       </c>
       <c r="C34" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>1.5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -227,6 +227,50 @@
   </si>
   <si>
     <t>Design and Decision Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/14/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Encoder speed requirement calculation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/15/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ordered control system components</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Researched QNX installation methods and issues</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/14/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/13/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Researched sterilizable motor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/18/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting on Skype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gravity Compensation motor experiment</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -594,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1012,6 +1056,72 @@
       </c>
       <c r="C37" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38">
+        <v>1.5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39">
+        <v>0.5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/5/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Weekly Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -42,18 +38,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/7/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/6/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/8/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Knex Party</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -66,10 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/9/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Meccano Party</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -78,22 +58,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/11/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Microcontroller research</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/3/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/2/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Review reference material (Plaskos Thesis)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -102,42 +70,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/12/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/14/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/17/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Control System Research</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/19/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/21/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/22/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TAR Research</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/24/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CFP Update</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -150,98 +90,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/25/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TAR - electrical and software</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/26/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/26/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TAR - microcontroller minimum speed calculation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/27/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TAR - microcontroller speed simulation and writeup</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/28/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TAR compilation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/28/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/1/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting - Chris meeting prep</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/1/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Chris Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/2/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/8/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/11/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Design and Decision Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/14/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Encoder speed requirement calculation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/15/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ordered control system components</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -250,27 +138,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/14/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/13/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Researched sterilizable motor</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/18/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting on Skype</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Gravity Compensation motor experiment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QNX Setup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Motor Testing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Motor controller cables research</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -334,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +234,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -663,465 +561,531 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
+      <c r="A2" s="3">
+        <v>40180</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
+      <c r="A3" s="3">
+        <v>40181</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="4">
+        <v>40183</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5" s="4">
+        <v>40183</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>40184</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4">
+        <v>40185</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4">
+        <v>40186</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="4">
+        <v>40186</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>12</v>
+      <c r="A10" s="4">
+        <v>40187</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
+      <c r="A11" s="4">
+        <v>40187</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>15</v>
+      <c r="A12" s="4">
+        <v>40189</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>15</v>
+      <c r="A13" s="4">
+        <v>40189</v>
       </c>
       <c r="B13">
         <v>0.5</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>21</v>
+      <c r="A14" s="4">
+        <v>40190</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>21</v>
+      <c r="A15" s="4">
+        <v>40190</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>22</v>
+      <c r="A16" s="4">
+        <v>40192</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>23</v>
+      <c r="A17" s="4">
+        <v>40195</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>25</v>
+      <c r="A18" s="4">
+        <v>40197</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>25</v>
+      <c r="A19" s="4">
+        <v>40197</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>26</v>
+      <c r="A20" s="4">
+        <v>40199</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>27</v>
+      <c r="A21" s="4">
+        <v>40200</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>29</v>
+      <c r="A22" s="4">
+        <v>40202</v>
       </c>
       <c r="B22">
         <v>1.5</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>29</v>
+      <c r="A23" s="4">
+        <v>40202</v>
       </c>
       <c r="B23">
         <v>1.5</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>29</v>
+      <c r="A24" s="4">
+        <v>40202</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>33</v>
+      <c r="A25" s="4">
+        <v>40203</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>35</v>
+      <c r="A26" s="4">
+        <v>40204</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>35</v>
+      <c r="A27" s="4">
+        <v>40204</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>36</v>
+      <c r="A28" s="4">
+        <v>40204</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>38</v>
+      <c r="A29" s="4">
+        <v>40205</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>40</v>
+      <c r="A30" s="4">
+        <v>40206</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>42</v>
+      <c r="A31" s="4">
+        <v>40206</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>43</v>
+      <c r="A32" s="4">
+        <v>40210</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>45</v>
+      <c r="A33" s="4">
+        <v>40210</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>47</v>
+      <c r="A34" s="4">
+        <v>40211</v>
       </c>
       <c r="B34">
         <v>1.5</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>49</v>
+      <c r="A35" s="4">
+        <v>40217</v>
       </c>
       <c r="B35">
         <v>1.5</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>49</v>
+      <c r="A36" s="4">
+        <v>40217</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>51</v>
+      <c r="A37" s="4">
+        <v>40220</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>59</v>
+      <c r="A38" s="4">
+        <v>40222</v>
       </c>
       <c r="B38">
         <v>1.5</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>53</v>
+      <c r="A39" s="4">
+        <v>40223</v>
       </c>
       <c r="B39">
         <v>0.5</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>58</v>
+      <c r="A40" s="4">
+        <v>40223</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>55</v>
+      <c r="A41" s="4">
+        <v>40224</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>61</v>
+      <c r="A42" s="4">
+        <v>40227</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>61</v>
+      <c r="A43" s="4">
+        <v>40227</v>
       </c>
       <c r="B43">
         <v>0.5</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4">
+        <v>40229</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4">
+        <v>40230</v>
+      </c>
+      <c r="B45">
+        <v>2.5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4">
+        <v>40231</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4">
+        <v>40231</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4">
+        <v>40232</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4">
+        <v>40233</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>Motor controller cables research</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QNX - testing gpio</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -536,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1086,6 +1090,39 @@
       </c>
       <c r="C49" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4">
+        <v>40234</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4">
+        <v>40236</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4">
+        <v>40237</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -166,7 +166,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>QNX - testing gpio</t>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QNX GPIO debug</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -542,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1094,10 +1098,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4">
-        <v>40234</v>
+        <v>40239</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C50" t="s">
         <v>37</v>
@@ -1105,24 +1109,24 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4">
-        <v>40236</v>
+        <v>40239</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4">
-        <v>40237</v>
+        <v>40240</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>QNX GPIO debug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -544,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1127,6 +1131,17 @@
       </c>
       <c r="C52" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4">
+        <v>40241</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QNX - Interrupts</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -548,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1142,6 +1146,28 @@
       </c>
       <c r="C53" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4">
+        <v>40243</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4">
+        <v>40244</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>QNX - Interrupts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RMA/ship motor/encoder</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -552,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1168,6 +1172,17 @@
       </c>
       <c r="C55" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4">
+        <v>40245</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>RMA/ship motor/encoder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QNX - Interrupts/Encoder test</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -556,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1183,6 +1187,28 @@
       </c>
       <c r="C56" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="4">
+        <v>40245</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4">
+        <v>40247</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>QNX - Interrupts/Encoder test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -560,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1202,12 +1206,34 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4">
+        <v>40246</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4">
+        <v>40246</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4">
         <v>40247</v>
       </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
         <v>42</v>
       </c>
     </row>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -191,6 +191,10 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Encoder/motor controller interface order</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -564,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1235,6 +1239,17 @@
       </c>
       <c r="C60" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="4">
+        <v>40249</v>
+      </c>
+      <c r="B61">
+        <v>1.5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>Encoder/motor controller interface order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -568,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1250,6 +1254,17 @@
       </c>
       <c r="C61" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="4">
+        <v>40253</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -199,6 +199,14 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OMAP UART documentation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QNX 3D implementation design</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -572,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1265,6 +1273,28 @@
       </c>
       <c r="C62" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="4">
+        <v>40256</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="4">
+        <v>40259</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -207,6 +207,22 @@
   </si>
   <si>
     <t>QNX 3D implementation design</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Physical interface board design</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QNX - Encoder Test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skype Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -580,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1295,6 +1311,83 @@
       </c>
       <c r="C64" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="4">
+        <v>40260</v>
+      </c>
+      <c r="B65">
+        <v>2.5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="4">
+        <v>40260</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4">
+        <v>40261</v>
+      </c>
+      <c r="B67">
+        <v>3.5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="4">
+        <v>40262</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="4">
+        <v>40263</v>
+      </c>
+      <c r="B69">
+        <v>0.5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="4">
+        <v>40263</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="4">
+        <v>40264</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>Skype Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Beagleboard diagnostic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AVR-CAN interface</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -596,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1388,6 +1400,50 @@
       </c>
       <c r="C71" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="4">
+        <v>40267</v>
+      </c>
+      <c r="B72">
+        <v>1.5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="4">
+        <v>40267</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="4">
+        <v>40270</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="4">
+        <v>40271</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -235,6 +235,14 @@
   </si>
   <si>
     <t>AVR-CAN interface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beagleboard avr-can interface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -608,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1444,6 +1452,50 @@
       </c>
       <c r="C75" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="4">
+        <v>40272</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="4">
+        <v>40273</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="4">
+        <v>40274</v>
+      </c>
+      <c r="B78">
+        <v>1.5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="4">
+        <v>40274</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -243,6 +243,26 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buying parts for interface board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interface board soldering and assembly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interface board debug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pair programming with Erica</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serial interface debug</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -616,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1496,6 +1516,72 @@
       </c>
       <c r="C79" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="4">
+        <v>40275</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="4">
+        <v>40277</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="4">
+        <v>40277</v>
+      </c>
+      <c r="B82">
+        <v>6.5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="4">
+        <v>40278</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="4">
+        <v>40279</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="4">
+        <v>40279</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -263,6 +263,26 @@
   </si>
   <si>
     <t>serial interface debug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ordering encoder and misc parts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Buying parts for AVR board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Soldering AVR interface board/making cables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Helping out with machining</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -636,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1531,13 +1551,13 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4">
-        <v>40277</v>
+        <v>40276</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1545,32 +1565,32 @@
         <v>40277</v>
       </c>
       <c r="B82">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4">
-        <v>40278</v>
+        <v>40277</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="C83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="4">
-        <v>40279</v>
+        <v>40278</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1578,10 +1598,98 @@
         <v>40279</v>
       </c>
       <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="4">
+        <v>40279</v>
+      </c>
+      <c r="B86">
         <v>6</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="4">
+        <v>40280</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="4">
+        <v>40280</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="4">
+        <v>40281</v>
+      </c>
+      <c r="B89">
+        <v>0.5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="4">
+        <v>40281</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="4">
+        <v>40282</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="4">
+        <v>40282</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="4">
+        <v>40283</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>Helping out with machining</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Looking for enclosure material</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM - Plan of action</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Final Report - digrams and writeup</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -656,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1690,6 +1702,39 @@
       </c>
       <c r="C93" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="4">
+        <v>40284</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="4">
+        <v>40285</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="4">
+        <v>40285</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -295,6 +295,10 @@
   </si>
   <si>
     <t>Final Report - digrams and writeup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Final Report editing, Poster design</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -668,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1735,6 +1739,17 @@
       </c>
       <c r="C96" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="4">
+        <v>40286</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/davy.xlsx
+++ b/status reports/davy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>Final Report editing, Poster design</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ordering enclosure parts and interface motor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Final debug and assembly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Soldering/making cables, searching for plexiglass supplier</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -672,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1750,6 +1762,39 @@
       </c>
       <c r="C97" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="4">
+        <v>40287</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="4">
+        <v>40288</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="4">
+        <v>40289</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
